--- a/Duty Roster Creator/2_TEMPLATES/Battalion_Non-Availability Roster.xlsx
+++ b/Duty Roster Creator/2_TEMPLATES/Battalion_Non-Availability Roster.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duncan.jeffreys\Desktop\Duty Roster Creator\2_TEMPLATES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ccanet\home\19yh8fx2\My Documents\Excel\Duty Roster Creator\2_TEMPLATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,14 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="DropDowns" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="Company_List">OFFSET(DropDowns!$B$2,0,0,SUM(COUNTA(DropDowns!$B:$B)-1),1)</definedName>
-    <definedName name="Rank_List">OFFSET(DropDowns!$A$2,0,0,SUM(COUNTA(DropDowns!$A:$A)-1),1)</definedName>
-    <definedName name="Test">OFFSET(Sheet1!$A$2,0,0,SUM(COUNTA(Sheet1!$A$1:$A$101)-1),1)</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Rank</t>
   </si>
@@ -47,118 +41,16 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>PFC</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Reason for Non-Availability</t>
   </si>
   <si>
     <t>StartDate</t>
   </si>
-  <si>
-    <t>Pvt</t>
-  </si>
-  <si>
-    <t>LCpl</t>
-  </si>
-  <si>
-    <t>Cpl</t>
-  </si>
-  <si>
-    <t>Sgt</t>
-  </si>
-  <si>
-    <t>SSgt</t>
-  </si>
-  <si>
-    <t>GySgt</t>
-  </si>
-  <si>
-    <t>MSgt</t>
-  </si>
-  <si>
-    <t>1stSgt</t>
-  </si>
-  <si>
-    <t>MGySgt</t>
-  </si>
-  <si>
-    <t>SgtMaj</t>
-  </si>
-  <si>
-    <t>WO1</t>
-  </si>
-  <si>
-    <t>CWO2</t>
-  </si>
-  <si>
-    <t>CWO3</t>
-  </si>
-  <si>
-    <t>CWO4</t>
-  </si>
-  <si>
-    <t>CWO5</t>
-  </si>
-  <si>
-    <t>2ndLt</t>
-  </si>
-  <si>
-    <t>1stLt</t>
-  </si>
-  <si>
-    <t>Capt</t>
-  </si>
-  <si>
-    <t>Maj</t>
-  </si>
-  <si>
-    <t>LtCol</t>
-  </si>
-  <si>
-    <t>Col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MajGen </t>
-  </si>
-  <si>
-    <t>LtGen</t>
-  </si>
-  <si>
-    <t>Gen</t>
-  </si>
-  <si>
-    <t>Ranks</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>HQ</t>
-  </si>
-  <si>
-    <t>SVC</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -318,43 +210,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,13 +547,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="10" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
     <col min="9" max="10" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
@@ -672,915 +573,739 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="16"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="16"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="15"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="16"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="15"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="16"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="15"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="15"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="16"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="16"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="15"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="16"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="15"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="16"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="9"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="15"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="16"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="15"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="16"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="15"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="16"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="15"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="16"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="15"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="16"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="15"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="16"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="15"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="16"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="15"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="16"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="15"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="16"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="15"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="16"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="15"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="16"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="15"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="16"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="15"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="16"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="15"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="16"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="15"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="16"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="15"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="16"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="15"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="16"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="15"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="16"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="15"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="16"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="15"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="16"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="15"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="16"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="15"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="16"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="15"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="16"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="15"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="16"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="15"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="16"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="15"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="16"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="15"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="16"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="15"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="16"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="15"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="16"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="15"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="16"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="15"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="16"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="15"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="16"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="15"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="16"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="15"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="16"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="15"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="16"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="15"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="16"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="15"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="16"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="15"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="16"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="15"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="16"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="15"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="16"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="15"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="16"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="15"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="16"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="15"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="16"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="15"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="16"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="15"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="16"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="15"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="16"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="15"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="16"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="15"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="16"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="15"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="16"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="15"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="16"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="15"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="16"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="15"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="16"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="15"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="16"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="15"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="16"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="15"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="16"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="15"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="16"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="15"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="16"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="15"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="16"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="15"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="16"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="15"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="16"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="15"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="16"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="15"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="16"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="15"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="16"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="15"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="16"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="15"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="16"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="15"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="16"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="15"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="16"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="15"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="16"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="15"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="16"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="15"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="16"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="15"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="16"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="15"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="16"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="15"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="16"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="15"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="16"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="15"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="16"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="9"/>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="15"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="16"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="15"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="16"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="15"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="16"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="15"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="16"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="9"/>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="15"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="16"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="15"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="16"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="9"/>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="15"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="16"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="15"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="16"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="15"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="16"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="9"/>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="15"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="16"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="9"/>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="15"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="16"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="9"/>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="15"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="16"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="9"/>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="15"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="16"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="9"/>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="15"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="16"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="9"/>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="15"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="16"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>